--- a/artfynd/A 4952-2019.xlsx
+++ b/artfynd/A 4952-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111661750</v>
+        <v>111661765</v>
       </c>
       <c r="B2" t="n">
-        <v>99581</v>
+        <v>89953</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221317</v>
+        <v>3884</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trifolium aureum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pollich</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -777,11 +777,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111661765</v>
+        <v>111661750</v>
       </c>
       <c r="B3" t="n">
-        <v>89953</v>
+        <v>99581</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3884</v>
+        <v>221317</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Trifolium aureum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>Pollich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -895,6 +890,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">

--- a/artfynd/A 4952-2019.xlsx
+++ b/artfynd/A 4952-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111661765</v>
+        <v>111661750</v>
       </c>
       <c r="B2" t="n">
-        <v>89953</v>
+        <v>99581</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3884</v>
+        <v>221317</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Trifolium aureum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>Pollich</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -777,6 +777,11 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111661750</v>
+        <v>111661765</v>
       </c>
       <c r="B3" t="n">
-        <v>99581</v>
+        <v>89953</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221317</v>
+        <v>3884</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trifolium aureum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pollich</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -890,11 +895,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">

--- a/artfynd/A 4952-2019.xlsx
+++ b/artfynd/A 4952-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111661750</v>
+        <v>111661765</v>
       </c>
       <c r="B2" t="n">
-        <v>99581</v>
+        <v>89953</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221317</v>
+        <v>3884</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trifolium aureum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pollich</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>686741.6563130131</v>
+        <v>686742</v>
       </c>
       <c r="R2" t="n">
-        <v>6619853.743970742</v>
+        <v>6619854</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -754,19 +754,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,11 +767,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -798,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111661765</v>
+        <v>111661750</v>
       </c>
       <c r="B3" t="n">
-        <v>89953</v>
+        <v>99581</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +795,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3884</v>
+        <v>221317</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Trifolium aureum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>Pollich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>686741.6563130131</v>
+        <v>686742</v>
       </c>
       <c r="R3" t="n">
-        <v>6619853.743970742</v>
+        <v>6619854</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -872,19 +857,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -895,6 +870,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
